--- a/studies/2020_Aperol_Git/questionnaire data/data/short_questionnaire_data_2101211.xlsx
+++ b/studies/2020_Aperol_Git/questionnaire data/data/short_questionnaire_data_2101211.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\studies\2020_Aperol_Git\questionnaire data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/505858402c07da9d/Dokumente/GitHub/Mandy-PhD/studies/2020_Aperol_Git/questionnaire data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{439A7540-42D4-4C86-8FD4-53CF5AA17846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{F28BBA72-3A30-4A3A-B713-DFFA82084AE9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{4FB805D2-3572-4143-8C2A-2E83C06BECED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8136" xr2:uid="{8CF18335-A014-4D58-B979-FFCA93177016}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18294" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18293" uniqueCount="291">
   <si>
     <t>Klassenmanagement</t>
   </si>
@@ -1565,8 +1565,8 @@
   <dimension ref="A1:S1642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1604" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1646" sqref="E1646"/>
+      <pane ySplit="1" topLeftCell="A798" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K818" sqref="K818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64696,8 +64696,8 @@
       <c r="K1070" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L1070" s="8" t="s">
-        <v>239</v>
+      <c r="L1070" s="8">
+        <v>0</v>
       </c>
       <c r="M1070" s="8" t="s">
         <v>126</v>
